--- a/Reports/TotalAnalysis.xlsx
+++ b/Reports/TotalAnalysis.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -24,6 +24,15 @@
   </si>
   <si>
     <t>Test Case Results (Pass / Fail / Not executed / Suspended)</t>
+  </si>
+  <si>
+    <t>23232</t>
+  </si>
+  <si>
+    <t>dsddsfd</t>
+  </si>
+  <si>
+    <t>12/01/21 12:12:36</t>
   </si>
   <si>
     <t>Pass</t>
@@ -104,16 +113,28 @@
       </c>
     </row>
     <row r="2">
-      <c r="F2" t="s">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
       <c r="G2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="3">
       <c r="F3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G3" t="n">
         <v>0.0</v>
@@ -121,7 +142,7 @@
     </row>
     <row r="4">
       <c r="F4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G4" t="n">
         <v>0.0</v>
@@ -129,7 +150,7 @@
     </row>
     <row r="5">
       <c r="F5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G5" t="n">
         <v>0.0</v>
@@ -137,10 +158,10 @@
     </row>
     <row r="6">
       <c r="F6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/TotalAnalysis.xlsx
+++ b/Reports/TotalAnalysis.xlsx
@@ -26,7 +26,7 @@
     <t>Test Case Results (Pass / Fail / Not executed / Suspended)</t>
   </si>
   <si>
-    <t>23232</t>
+    <t>id231</t>
   </si>
   <si>
     <t>dsddsfd</t>

--- a/Reports/TotalAnalysis.xlsx
+++ b/Reports/TotalAnalysis.xlsx
@@ -26,7 +26,7 @@
     <t>Test Case Results (Pass / Fail / Not executed / Suspended)</t>
   </si>
   <si>
-    <t>id231</t>
+    <t>noIDx</t>
   </si>
   <si>
     <t>dsddsfd</t>

--- a/Reports/TotalAnalysis.xlsx
+++ b/Reports/TotalAnalysis.xlsx
@@ -26,7 +26,7 @@
     <t>Test Case Results (Pass / Fail / Not executed / Suspended)</t>
   </si>
   <si>
-    <t>noIDx</t>
+    <t>noIDxx</t>
   </si>
   <si>
     <t>dsddsfd</t>
